--- a/ApolloQA/Data/RatingManual/SC/VA00078.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00078.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00078.ClassCodeFactors" sheetId="1" r:id="Ra29af26516e742b7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00078.ClassCodeFactors" sheetId="1" r:id="R4f2f3c7375b944d9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9791</x:v>
+        <x:v>1.2239</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.6317</x:v>
+        <x:v>3.2896</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.8312</x:v>
+        <x:v>2.2890</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7456</x:v>
+        <x:v>2.1820</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,35 +151,35 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>0.8856</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4.0713</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5.2928</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>0.7085</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>3.2570</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4.2342</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.7085</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
         <x:v>546</x:v>
       </x:c>
       <x:c t="str">
@@ -311,7 +311,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8750</x:v>
+        <x:v>1.0938</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -319,7 +319,7 @@
         <x:v>565</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0494</x:v>
+        <x:v>1.1862</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -327,7 +327,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7594</x:v>
+        <x:v>2.1993</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -335,7 +335,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4.3054</x:v>
+        <x:v>5.3818</x:v>
       </x:c>
     </x:row>
     <x:row>
